--- a/GATEWAY/A1#111#LIBRASISTEMISRLXX/LIBRA SISTEMI SRL/Geslab/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#LIBRASISTEMISRLXX/LIBRA SISTEMI SRL/Geslab/2.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LavoriCorrenti\FES\ACCREDITAMENTO\Libra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F024158F-C03C-40B9-8F91-F471E3C992AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87A6053-128B-463C-8742-2AA37A4AE5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="254">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -970,12 +970,6 @@
     <t>2.16.840.1.113883.2.9.2.20.1524e38ce6ed70153184cb2076fec29ccfcb8ba6fa8631f036386e10ab5c14eb.4833a168ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>b3a8c10893258f32</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.20.40fa7dfaf0d932276ddd44c3d9e97b420635094e9e15f1db48d86f65fd699170.151b71ff6e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>5b2381803c68df94</t>
   </si>
   <si>
@@ -1043,24 +1037,6 @@
   </si>
   <si>
     <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : "ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR"Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
-  </si>
-  <si>
-    <t>f19c3881f963bde2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.20.40fa7dfaf0d932276ddd44c3d9e97b420635094e9e15f1db48d86f65fd699170.c664b234c4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>052dcd4f1b147322</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.20.627c7d9aa5f10b6d5b9250100b22c70b8f14fd025a4e07908f6c27d1595dd967.4d300ceeb8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2917189cf3e83bef</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.20.627c7d9aa5f10b6d5b9250100b22c70b8f14fd025a4e07908f6c27d1595dd967.c3cb23b5ab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : "ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25'"Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
@@ -1132,9 +1108,6 @@
     <t>2024-02-22T10:42:38Z</t>
   </si>
   <si>
-    <t>2024-02-22T10:57:16Z</t>
-  </si>
-  <si>
     <t>2024-02-26T15:13:46Z</t>
   </si>
   <si>
@@ -1159,13 +1132,43 @@
     <t>2024-02-22T11:16:46Z</t>
   </si>
   <si>
-    <t>2024-02-26T13:03:42Z</t>
-  </si>
-  <si>
-    <t>2024-02-26T13:15:19Z</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2024-03-12T13:29:56Z</t>
+  </si>
+  <si>
+    <t>e4c0ca1164f12cc5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.20.40fa7dfaf0d932276ddd44c3d9e97b420635094e9e15f1db48d86f65fd699170.72a95dfea9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5d2184970fba77f8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.20.40fa7dfaf0d932276ddd44c3d9e97b420635094e9e15f1db48d86f65fd699170.ab30ec0aeb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-03-12T13:35:25Z</t>
+  </si>
+  <si>
+    <t>2024-03-12T14:43:28Z</t>
+  </si>
+  <si>
+    <t>51c7bb0555a7ecdd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.20.627c7d9aa5f10b6d5b9250100b22c70b8f14fd025a4e07908f6c27d1595dd967.9c686669bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>123664977a016416</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.20.627c7d9aa5f10b6d5b9250100b22c70b8f14fd025a4e07908f6c27d1595dd967.09accb4fc6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-03-12T14:48:31Z</t>
   </si>
 </sst>
 </file>
@@ -1799,13 +1802,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K81" sqref="K81"/>
+      <selection pane="bottomRight" activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2078,7 +2082,7 @@
         <v>45344</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>185</v>
@@ -2122,7 +2126,7 @@
         <v>45344</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>187</v>
@@ -2166,7 +2170,7 @@
         <v>45344</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>189</v>
@@ -2210,7 +2214,7 @@
         <v>45344</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>191</v>
@@ -2254,7 +2258,7 @@
         <v>45344</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>193</v>
@@ -2295,16 +2299,16 @@
         <v>37</v>
       </c>
       <c r="F15" s="14">
-        <v>45344</v>
+        <v>45363</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>59</v>
@@ -2322,7 +2326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="105.75" thickBot="1">
+    <row r="16" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -2346,7 +2350,7 @@
         <v>180</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -2360,7 +2364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="105.75" thickBot="1">
+    <row r="17" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -2384,7 +2388,7 @@
         <v>180</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -2398,7 +2402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="105.75" thickBot="1">
+    <row r="18" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -2422,7 +2426,7 @@
         <v>180</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -2456,13 +2460,13 @@
         <v>45348</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J19" s="20" t="s">
         <v>59</v>
@@ -2479,7 +2483,7 @@
         <v>59</v>
       </c>
       <c r="P19" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q19" s="16"/>
       <c r="R19" s="17" t="s">
@@ -2510,13 +2514,13 @@
         <v>45344</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J20" s="16" t="s">
         <v>59</v>
@@ -2533,7 +2537,7 @@
         <v>59</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="17" t="s">
@@ -2564,13 +2568,13 @@
         <v>45348</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J21" s="20" t="s">
         <v>59</v>
@@ -2587,7 +2591,7 @@
         <v>59</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="22" t="s">
@@ -2618,13 +2622,13 @@
         <v>45348</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>59</v>
@@ -2641,7 +2645,7 @@
         <v>59</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="16"/>
       <c r="R22" s="17"/>
@@ -2670,13 +2674,13 @@
         <v>45344</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J23" s="20" t="s">
         <v>59</v>
@@ -2693,7 +2697,7 @@
         <v>59</v>
       </c>
       <c r="P23" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="22" t="s">
@@ -2724,13 +2728,13 @@
         <v>45348</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J24" s="20" t="s">
         <v>59</v>
@@ -2747,7 +2751,7 @@
         <v>59</v>
       </c>
       <c r="P24" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q24" s="16"/>
       <c r="R24" s="22" t="s">
@@ -2778,7 +2782,7 @@
         <v>45348</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
@@ -2797,7 +2801,7 @@
         <v>59</v>
       </c>
       <c r="P25" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q25" s="16"/>
       <c r="R25" s="17" t="s">
@@ -2828,7 +2832,7 @@
         <v>45344</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
@@ -2847,7 +2851,7 @@
         <v>59</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q26" s="16"/>
       <c r="R26" s="17" t="s">
@@ -2878,7 +2882,7 @@
         <v>45348</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
@@ -2897,7 +2901,7 @@
         <v>59</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q27" s="16"/>
       <c r="R27" s="17" t="s">
@@ -2908,7 +2912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="240.75" thickBot="1">
+    <row r="28" spans="1:20" ht="240.75" hidden="1" thickBot="1">
       <c r="A28" s="11">
         <v>52</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>63</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -2934,7 +2938,7 @@
         <v>180</v>
       </c>
       <c r="K28" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L28" s="20" t="s">
         <v>59</v>
@@ -2947,7 +2951,7 @@
         <v>59</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="17"/>
@@ -2956,7 +2960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="180.75" thickBot="1">
+    <row r="29" spans="1:20" ht="180.75" hidden="1" thickBot="1">
       <c r="A29" s="11">
         <v>53</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>65</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -2982,7 +2986,7 @@
         <v>180</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L29" s="20" t="s">
         <v>59</v>
@@ -2995,7 +2999,7 @@
         <v>59</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="16"/>
       <c r="R29" s="17"/>
@@ -3004,7 +3008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="240.75" thickBot="1">
+    <row r="30" spans="1:20" ht="240.75" hidden="1" thickBot="1">
       <c r="A30" s="11">
         <v>54</v>
       </c>
@@ -3021,7 +3025,7 @@
         <v>67</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -3030,7 +3034,7 @@
         <v>180</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L30" s="20" t="s">
         <v>59</v>
@@ -3043,7 +3047,7 @@
         <v>59</v>
       </c>
       <c r="P30" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="17"/>
@@ -3052,7 +3056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="225.75" thickBot="1">
+    <row r="31" spans="1:20" ht="225.75" hidden="1" thickBot="1">
       <c r="A31" s="11">
         <v>55</v>
       </c>
@@ -3069,7 +3073,7 @@
         <v>69</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -3078,7 +3082,7 @@
         <v>180</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L31" s="20" t="s">
         <v>59</v>
@@ -3091,7 +3095,7 @@
         <v>59</v>
       </c>
       <c r="P31" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="17"/>
@@ -3100,7 +3104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="90.75" thickBot="1">
+    <row r="32" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A32" s="11">
         <v>56</v>
       </c>
@@ -3117,7 +3121,7 @@
         <v>71</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -3126,7 +3130,7 @@
         <v>180</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L32" s="20" t="s">
         <v>59</v>
@@ -3144,7 +3148,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="105.75" thickBot="1">
+    <row r="33" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A33" s="11">
         <v>57</v>
       </c>
@@ -3161,7 +3165,7 @@
         <v>73</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -3170,7 +3174,7 @@
         <v>180</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L33" s="20" t="s">
         <v>59</v>
@@ -3188,7 +3192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="225.75" thickBot="1">
+    <row r="34" spans="1:20" ht="225.75" hidden="1" thickBot="1">
       <c r="A34" s="11">
         <v>58</v>
       </c>
@@ -3205,7 +3209,7 @@
         <v>75</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -3214,7 +3218,7 @@
         <v>180</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L34" s="20" t="s">
         <v>59</v>
@@ -3227,7 +3231,7 @@
         <v>59</v>
       </c>
       <c r="P34" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q34" s="16"/>
       <c r="R34" s="17"/>
@@ -3236,7 +3240,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="255.75" thickBot="1">
+    <row r="35" spans="1:20" ht="255.75" hidden="1" thickBot="1">
       <c r="A35" s="11">
         <v>59</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>77</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -3262,7 +3266,7 @@
         <v>180</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L35" s="20" t="s">
         <v>59</v>
@@ -3275,7 +3279,7 @@
         <v>59</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q35" s="16"/>
       <c r="R35" s="17"/>
@@ -3284,7 +3288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="409.6" thickBot="1">
+    <row r="36" spans="1:20" ht="409.6" hidden="1" thickBot="1">
       <c r="A36" s="11">
         <v>60</v>
       </c>
@@ -3301,7 +3305,7 @@
         <v>79</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -3310,7 +3314,7 @@
         <v>180</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L36" s="20" t="s">
         <v>59</v>
@@ -3323,7 +3327,7 @@
         <v>59</v>
       </c>
       <c r="P36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="Q36" s="16"/>
       <c r="R36" s="17"/>
@@ -3332,7 +3336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="195.75" thickBot="1">
+    <row r="37" spans="1:20" ht="195.75" hidden="1" thickBot="1">
       <c r="A37" s="11">
         <v>61</v>
       </c>
@@ -3349,7 +3353,7 @@
         <v>81</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -3358,7 +3362,7 @@
         <v>180</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L37" s="20" t="s">
         <v>59</v>
@@ -3371,7 +3375,7 @@
         <v>59</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="17"/>
@@ -3380,7 +3384,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="210.75" thickBot="1">
+    <row r="38" spans="1:20" ht="210.75" hidden="1" thickBot="1">
       <c r="A38" s="11">
         <v>62</v>
       </c>
@@ -3397,7 +3401,7 @@
         <v>83</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -3406,7 +3410,7 @@
         <v>180</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L38" s="20" t="s">
         <v>59</v>
@@ -3419,7 +3423,7 @@
         <v>59</v>
       </c>
       <c r="P38" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="17"/>
@@ -3428,7 +3432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="236.25" customHeight="1" thickBot="1">
+    <row r="39" spans="1:20" ht="236.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A39" s="11">
         <v>75</v>
       </c>
@@ -3445,7 +3449,7 @@
         <v>85</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -3454,7 +3458,7 @@
         <v>180</v>
       </c>
       <c r="K39" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L39" s="20" t="s">
         <v>59</v>
@@ -3467,7 +3471,7 @@
         <v>59</v>
       </c>
       <c r="P39" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q39" s="16"/>
       <c r="R39" s="17"/>
@@ -3476,7 +3480,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="180.75" thickBot="1">
+    <row r="40" spans="1:20" ht="180.75" hidden="1" thickBot="1">
       <c r="A40" s="11">
         <v>76</v>
       </c>
@@ -3493,7 +3497,7 @@
         <v>87</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -3502,7 +3506,7 @@
         <v>180</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L40" s="20" t="s">
         <v>59</v>
@@ -3515,7 +3519,7 @@
         <v>59</v>
       </c>
       <c r="P40" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="17"/>
@@ -3524,7 +3528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="240.75" thickBot="1">
+    <row r="41" spans="1:20" ht="240.75" hidden="1" thickBot="1">
       <c r="A41" s="11">
         <v>77</v>
       </c>
@@ -3541,7 +3545,7 @@
         <v>89</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -3550,7 +3554,7 @@
         <v>180</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L41" s="20" t="s">
         <v>59</v>
@@ -3563,7 +3567,7 @@
         <v>59</v>
       </c>
       <c r="P41" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q41" s="16"/>
       <c r="R41" s="17"/>
@@ -3572,7 +3576,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="225.75" thickBot="1">
+    <row r="42" spans="1:20" ht="225.75" hidden="1" thickBot="1">
       <c r="A42" s="11">
         <v>78</v>
       </c>
@@ -3589,7 +3593,7 @@
         <v>91</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -3598,7 +3602,7 @@
         <v>180</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L42" s="20" t="s">
         <v>59</v>
@@ -3611,7 +3615,7 @@
         <v>59</v>
       </c>
       <c r="P42" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q42" s="16"/>
       <c r="R42" s="17"/>
@@ -3620,7 +3624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="90.75" thickBot="1">
+    <row r="43" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A43" s="11">
         <v>79</v>
       </c>
@@ -3637,7 +3641,7 @@
         <v>93</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -3646,7 +3650,7 @@
         <v>180</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
@@ -3660,7 +3664,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="105.75" thickBot="1">
+    <row r="44" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A44" s="11">
         <v>80</v>
       </c>
@@ -3677,7 +3681,7 @@
         <v>95</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -3686,7 +3690,7 @@
         <v>180</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
@@ -3700,7 +3704,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="225.75" thickBot="1">
+    <row r="45" spans="1:20" ht="225.75" hidden="1" thickBot="1">
       <c r="A45" s="11">
         <v>81</v>
       </c>
@@ -3717,7 +3721,7 @@
         <v>97</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -3726,7 +3730,7 @@
         <v>180</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L45" s="20" t="s">
         <v>59</v>
@@ -3739,7 +3743,7 @@
         <v>59</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q45" s="16"/>
       <c r="R45" s="17"/>
@@ -3748,7 +3752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="255.75" thickBot="1">
+    <row r="46" spans="1:20" ht="255.75" hidden="1" thickBot="1">
       <c r="A46" s="11">
         <v>82</v>
       </c>
@@ -3765,7 +3769,7 @@
         <v>99</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -3774,7 +3778,7 @@
         <v>180</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L46" s="20" t="s">
         <v>59</v>
@@ -3787,7 +3791,7 @@
         <v>59</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q46" s="16"/>
       <c r="R46" s="17"/>
@@ -3796,7 +3800,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="75.75" thickBot="1">
+    <row r="47" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A47" s="11">
         <v>83</v>
       </c>
@@ -3813,7 +3817,7 @@
         <v>101</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -3822,7 +3826,7 @@
         <v>180</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
@@ -3836,7 +3840,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="285.75" thickBot="1">
+    <row r="48" spans="1:20" ht="285.75" hidden="1" thickBot="1">
       <c r="A48" s="11">
         <v>84</v>
       </c>
@@ -3853,7 +3857,7 @@
         <v>103</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -3862,7 +3866,7 @@
         <v>180</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L48" s="20" t="s">
         <v>59</v>
@@ -3875,7 +3879,7 @@
         <v>59</v>
       </c>
       <c r="P48" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q48" s="16"/>
       <c r="R48" s="17"/>
@@ -3884,7 +3888,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="165.75" thickBot="1">
+    <row r="49" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A49" s="11">
         <v>85</v>
       </c>
@@ -3901,7 +3905,7 @@
         <v>105</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -3910,7 +3914,7 @@
         <v>180</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
@@ -3919,7 +3923,7 @@
         <v>59</v>
       </c>
       <c r="P49" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q49" s="16"/>
       <c r="R49" s="17"/>
@@ -3928,7 +3932,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="90.75" thickBot="1">
+    <row r="50" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A50" s="11">
         <v>86</v>
       </c>
@@ -3945,7 +3949,7 @@
         <v>107</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -3954,7 +3958,7 @@
         <v>180</v>
       </c>
       <c r="K50" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
@@ -3968,7 +3972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="105.75" thickBot="1">
+    <row r="51" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A51" s="11">
         <v>87</v>
       </c>
@@ -3985,7 +3989,7 @@
         <v>109</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -3994,7 +3998,7 @@
         <v>180</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
@@ -4008,7 +4012,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="90.75" thickBot="1">
+    <row r="52" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A52" s="11">
         <v>88</v>
       </c>
@@ -4025,7 +4029,7 @@
         <v>111</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -4034,7 +4038,7 @@
         <v>180</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="16"/>
@@ -4048,7 +4052,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="75.75" thickBot="1">
+    <row r="53" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A53" s="11">
         <v>89</v>
       </c>
@@ -4065,7 +4069,7 @@
         <v>113</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -4074,7 +4078,7 @@
         <v>180</v>
       </c>
       <c r="K53" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
@@ -4088,7 +4092,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="75.75" thickBot="1">
+    <row r="54" spans="1:20" ht="75.75" hidden="1" thickBot="1">
       <c r="A54" s="11">
         <v>90</v>
       </c>
@@ -4105,7 +4109,7 @@
         <v>115</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -4114,7 +4118,7 @@
         <v>180</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
@@ -4128,7 +4132,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="90.75" thickBot="1">
+    <row r="55" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A55" s="11">
         <v>91</v>
       </c>
@@ -4145,7 +4149,7 @@
         <v>117</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
@@ -4154,7 +4158,7 @@
         <v>180</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
@@ -4168,7 +4172,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="105.75" thickBot="1">
+    <row r="56" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A56" s="11">
         <v>92</v>
       </c>
@@ -4185,7 +4189,7 @@
         <v>119</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -4194,7 +4198,7 @@
         <v>180</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
@@ -4208,7 +4212,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="255.75" thickBot="1">
+    <row r="57" spans="1:20" ht="255.75" hidden="1" thickBot="1">
       <c r="A57" s="11">
         <v>93</v>
       </c>
@@ -4225,7 +4229,7 @@
         <v>121</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
@@ -4234,7 +4238,7 @@
         <v>180</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L57" s="20" t="s">
         <v>59</v>
@@ -4245,7 +4249,7 @@
       <c r="N57" s="16"/>
       <c r="O57" s="16"/>
       <c r="P57" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q57" s="16"/>
       <c r="R57" s="17"/>
@@ -4271,16 +4275,16 @@
         <v>123</v>
       </c>
       <c r="F58" s="14">
-        <v>45348</v>
+        <v>45363</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="J58" s="16" t="s">
         <v>59</v>
@@ -4298,7 +4302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="135.75" thickBot="1">
+    <row r="59" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A59" s="11">
         <v>148</v>
       </c>
@@ -4315,7 +4319,7 @@
         <v>125</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -4324,7 +4328,7 @@
         <v>180</v>
       </c>
       <c r="K59" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
@@ -4338,7 +4342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="135.75" thickBot="1">
+    <row r="60" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A60" s="11">
         <v>149</v>
       </c>
@@ -4355,7 +4359,7 @@
         <v>127</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -4364,7 +4368,7 @@
         <v>180</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
@@ -4378,7 +4382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="135.75" thickBot="1">
+    <row r="61" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A61" s="11">
         <v>150</v>
       </c>
@@ -4402,7 +4406,7 @@
         <v>180</v>
       </c>
       <c r="K61" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
@@ -4416,7 +4420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="225.75" thickBot="1">
+    <row r="62" spans="1:20" ht="225.75" hidden="1" thickBot="1">
       <c r="A62" s="11">
         <v>151</v>
       </c>
@@ -4433,7 +4437,7 @@
         <v>131</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -4442,7 +4446,7 @@
         <v>180</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L62" s="20" t="s">
         <v>59</v>
@@ -4453,7 +4457,7 @@
       <c r="N62" s="16"/>
       <c r="O62" s="16"/>
       <c r="P62" s="20" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="Q62" s="16"/>
       <c r="R62" s="17"/>
@@ -4462,7 +4466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="180.75" thickBot="1">
+    <row r="63" spans="1:20" ht="180.75" hidden="1" thickBot="1">
       <c r="A63" s="11">
         <v>152</v>
       </c>
@@ -4479,7 +4483,7 @@
         <v>133</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -4488,7 +4492,7 @@
         <v>180</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L63" s="20" t="s">
         <v>59</v>
@@ -4499,7 +4503,7 @@
       <c r="N63" s="16"/>
       <c r="O63" s="16"/>
       <c r="P63" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q63" s="16"/>
       <c r="R63" s="17"/>
@@ -4508,7 +4512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="240.75" thickBot="1">
+    <row r="64" spans="1:20" ht="240.75" hidden="1" thickBot="1">
       <c r="A64" s="11">
         <v>153</v>
       </c>
@@ -4525,7 +4529,7 @@
         <v>135</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -4534,7 +4538,7 @@
         <v>180</v>
       </c>
       <c r="K64" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L64" s="20" t="s">
         <v>59</v>
@@ -4545,7 +4549,7 @@
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
       <c r="P64" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q64" s="16"/>
       <c r="R64" s="17"/>
@@ -4554,7 +4558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="225.75" thickBot="1">
+    <row r="65" spans="1:20" ht="225.75" hidden="1" thickBot="1">
       <c r="A65" s="11">
         <v>154</v>
       </c>
@@ -4571,7 +4575,7 @@
         <v>137</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
@@ -4580,7 +4584,7 @@
         <v>180</v>
       </c>
       <c r="K65" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L65" s="20" t="s">
         <v>59</v>
@@ -4591,7 +4595,7 @@
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
       <c r="P65" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q65" s="16"/>
       <c r="R65" s="17"/>
@@ -4600,7 +4604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="105.75" thickBot="1">
+    <row r="66" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A66" s="11">
         <v>155</v>
       </c>
@@ -4617,7 +4621,7 @@
         <v>139</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -4626,7 +4630,7 @@
         <v>180</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
@@ -4640,7 +4644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="120.75" thickBot="1">
+    <row r="67" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A67" s="11">
         <v>156</v>
       </c>
@@ -4657,7 +4661,7 @@
         <v>141</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
@@ -4666,7 +4670,7 @@
         <v>180</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
@@ -4680,7 +4684,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="120.75" thickBot="1">
+    <row r="68" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A68" s="11">
         <v>157</v>
       </c>
@@ -4697,7 +4701,7 @@
         <v>143</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
@@ -4706,7 +4710,7 @@
         <v>180</v>
       </c>
       <c r="K68" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L68" s="16"/>
       <c r="M68" s="16"/>
@@ -4720,7 +4724,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="255.75" thickBot="1">
+    <row r="69" spans="1:20" ht="255.75" hidden="1" thickBot="1">
       <c r="A69" s="11">
         <v>158</v>
       </c>
@@ -4737,7 +4741,7 @@
         <v>145</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
@@ -4746,7 +4750,7 @@
         <v>180</v>
       </c>
       <c r="K69" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L69" s="20" t="s">
         <v>59</v>
@@ -4757,7 +4761,7 @@
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
       <c r="P69" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q69" s="16"/>
       <c r="R69" s="17"/>
@@ -4766,7 +4770,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="90.75" thickBot="1">
+    <row r="70" spans="1:20" ht="90.75" hidden="1" thickBot="1">
       <c r="A70" s="11">
         <v>159</v>
       </c>
@@ -4783,7 +4787,7 @@
         <v>147</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -4792,7 +4796,7 @@
         <v>180</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L70" s="16"/>
       <c r="M70" s="20"/>
@@ -4806,7 +4810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="285.75" thickBot="1">
+    <row r="71" spans="1:20" ht="285.75" hidden="1" thickBot="1">
       <c r="A71" s="11">
         <v>160</v>
       </c>
@@ -4823,7 +4827,7 @@
         <v>149</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -4832,7 +4836,7 @@
         <v>180</v>
       </c>
       <c r="K71" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L71" s="20" t="s">
         <v>59</v>
@@ -4842,7 +4846,7 @@
       </c>
       <c r="O71" s="16"/>
       <c r="P71" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q71" s="16"/>
       <c r="R71" s="17"/>
@@ -4851,7 +4855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="165.75" thickBot="1">
+    <row r="72" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A72" s="11">
         <v>161</v>
       </c>
@@ -4868,7 +4872,7 @@
         <v>151</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -4877,7 +4881,7 @@
         <v>180</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L72" s="20" t="s">
         <v>59</v>
@@ -4888,7 +4892,7 @@
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
       <c r="P72" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="17"/>
@@ -4897,7 +4901,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="105.75" thickBot="1">
+    <row r="73" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A73" s="11">
         <v>162</v>
       </c>
@@ -4914,7 +4918,7 @@
         <v>153</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -4923,7 +4927,7 @@
         <v>180</v>
       </c>
       <c r="K73" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
@@ -4937,7 +4941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="105.75" thickBot="1">
+    <row r="74" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A74" s="11">
         <v>163</v>
       </c>
@@ -4954,7 +4958,7 @@
         <v>155</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -4963,7 +4967,7 @@
         <v>180</v>
       </c>
       <c r="K74" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
@@ -4977,7 +4981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="105.75" thickBot="1">
+    <row r="75" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A75" s="11">
         <v>164</v>
       </c>
@@ -4994,7 +4998,7 @@
         <v>157</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -5003,7 +5007,7 @@
         <v>180</v>
       </c>
       <c r="K75" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
@@ -5017,7 +5021,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="105.75" thickBot="1">
+    <row r="76" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A76" s="11">
         <v>165</v>
       </c>
@@ -5034,7 +5038,7 @@
         <v>159</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -5043,7 +5047,7 @@
         <v>180</v>
       </c>
       <c r="K76" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
@@ -5057,7 +5061,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="105.75" thickBot="1">
+    <row r="77" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A77" s="11">
         <v>166</v>
       </c>
@@ -5074,7 +5078,7 @@
         <v>161</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -5083,7 +5087,7 @@
         <v>180</v>
       </c>
       <c r="K77" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
@@ -5097,7 +5101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="105.75" thickBot="1">
+    <row r="78" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A78" s="11">
         <v>167</v>
       </c>
@@ -5114,7 +5118,7 @@
         <v>163</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -5123,7 +5127,7 @@
         <v>180</v>
       </c>
       <c r="K78" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
@@ -5137,7 +5141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="120.75" thickBot="1">
+    <row r="79" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A79" s="11">
         <v>168</v>
       </c>
@@ -5154,7 +5158,7 @@
         <v>165</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -5163,7 +5167,7 @@
         <v>180</v>
       </c>
       <c r="K79" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
@@ -5177,7 +5181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="210.75" thickBot="1">
+    <row r="80" spans="1:20" ht="210.75" hidden="1" thickBot="1">
       <c r="A80" s="11">
         <v>169</v>
       </c>
@@ -5194,7 +5198,7 @@
         <v>167</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -5203,7 +5207,7 @@
         <v>180</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L80" s="20" t="s">
         <v>59</v>
@@ -5214,7 +5218,7 @@
       <c r="N80" s="16"/>
       <c r="O80" s="16"/>
       <c r="P80" s="20" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="Q80" s="16"/>
       <c r="R80" s="17"/>
@@ -5223,7 +5227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="120.75" thickBot="1">
+    <row r="81" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A81" s="11">
         <v>191</v>
       </c>
@@ -5240,7 +5244,7 @@
         <v>169</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -5249,7 +5253,7 @@
         <v>180</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
@@ -5283,13 +5287,13 @@
         <v>45344</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J82" s="16" t="s">
         <v>59</v>
@@ -5324,16 +5328,16 @@
         <v>173</v>
       </c>
       <c r="F83" s="14">
-        <v>45348</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="I83" s="15" t="s">
-        <v>220</v>
+        <v>45363</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H83" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="I83" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="J83" s="20" t="s">
         <v>59</v>
@@ -5351,7 +5355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="135.75" thickBot="1">
+    <row r="84" spans="1:20" ht="135">
       <c r="A84" s="11">
         <v>374</v>
       </c>
@@ -5368,16 +5372,16 @@
         <v>175</v>
       </c>
       <c r="F84" s="14">
-        <v>45348</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="I84" s="15" t="s">
-        <v>222</v>
+        <v>45363</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H84" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="I84" s="21" t="s">
+        <v>250</v>
       </c>
       <c r="J84" s="20" t="s">
         <v>59</v>
@@ -5395,7 +5399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="120">
+    <row r="85" spans="1:20" ht="120" hidden="1">
       <c r="A85" s="11">
         <v>376</v>
       </c>
@@ -5412,7 +5416,7 @@
         <v>177</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -5421,7 +5425,7 @@
         <v>180</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L85" s="16"/>
       <c r="M85" s="16"/>
@@ -5436,7 +5440,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T85" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A9:T85" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="SI"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/A1#111#LIBRASISTEMISRLXX/LIBRA SISTEMI SRL/Geslab/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#LIBRASISTEMISRLXX/LIBRA SISTEMI SRL/Geslab/2.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LavoriCorrenti\FES\ACCREDITAMENTO\Libra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87A6053-128B-463C-8742-2AA37A4AE5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8D9D85-41B7-472A-990B-FC7E58D3C9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="240">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -1000,54 +1000,18 @@
     <t>Il componente che invia i documenti al Gateway esegue un controllo sullo schema XSL ottenuto dalla trasformazione dello schematron ufficiale. Se il test non viene superato il documento non viene inviato</t>
   </si>
   <si>
-    <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : in questo caso "ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25".Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
-  </si>
-  <si>
-    <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : in questo caso "Errore-46| codice fiscale 'tSTFSE70L08A326B' cittadino ed operatore: 16 cifre [A-Z0-9]{16}'".Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
-  </si>
-  <si>
-    <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : in questo caso "ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'".Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
-  </si>
-  <si>
-    <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : in questo caso "ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine''".Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
-  </si>
-  <si>
     <t>Il campo sesso viene verificato perché sia  M o F in caso di discrepanza viene bloccata la refertazione del paziente fino a che l'anagrafica non viene correttamente compilata</t>
   </si>
   <si>
     <t>I campi cognome e nome vengono verificati perché siano entrambi compilati in caso di assenza viene bloccata la refertazione del paziente fino a che l'anagrafica non è stata correttamente compilata</t>
   </si>
   <si>
-    <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : in questo caso " l'entry/act/code può essere valorizzato secondo i sistemi di codifica
-			LOINC @codeSystem='2.16.840.1.113883.6.1'".Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
-  </si>
-  <si>
-    <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : in questo caso "ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM".Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
-  </si>
-  <si>
     <t>La procedura verifica il corretto inserimento del numero di accettazione come riferimnto interno o di NRE prima di permettere la refertazione del paziente</t>
   </si>
   <si>
-    <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : in questo caso "W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica
-			LOINC @codeSystem='2.16.840.1.113883.6.1'
-			ICD-9-CM @codeSystem='2.16.840.1.113883.6.103'".Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
-  </si>
-  <si>
-    <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : "ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'."Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
-  </si>
-  <si>
-    <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : "ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR"Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
-  </si>
-  <si>
-    <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : "ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25'"Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
-  </si>
-  <si>
     <t>La procedura verifica il corretto inserimento del numero di accettazione come riferimento interno o di NRE prima di permettere la refertazione del paziente</t>
   </si>
   <si>
-    <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : in questo caso "ERRORE-30| L'elemento ClinicalDocument/legalAuthenticator/signatureCode deve essere valorizzato con il codice "S" ".Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
-  </si>
-  <si>
     <t>e55eb6740d92bfe4</t>
   </si>
   <si>
@@ -1061,36 +1025,6 @@
   </si>
   <si>
     <t>8abcf0bddd9b9f3a</t>
-  </si>
-  <si>
-    <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : in questo caso "ERRORE-b1| L'elemento code della section DEVE essere valorizzato con uno dei seguenti codici LOINC individuati:
-						18717-9 BANCA DEL SANGUE
-						18718-7 MARCATORI CELLULARI 
-						18719-5 CHIMICA
-						18720-3	COAGULAZIONE
-						18721-1 MONITORAGGIO TERAPEUTICO DEI FARMACI
-						18722-9 FERTILITÀ
-						18723-7 EMATOLOGIA
-						18724-5 HLA
-						18725-2 MICROBIOLOGIA
-						18727-8 SEROLOGIA
-						18728-6 TOSSICOLOGIA
-						18729-4 ESAMI DELLE URINE
-						18767-4 EMOGASANALISI
-						18768-2 CONTE CELLULARE+DIFFERENZIALE
-						18769-0 SUSCETTIBILITÀ ANTIMICROBICA
-						26435-8 PATOLOGIA MOLECOLARE
-						26436-6 ESAMI DI LABORATORIO
-						26437-4 TEST DI SENSIBILITÀ A SOSTANZE CHIMICHE
-						26438-2 CITOLOGIA
-						18716-1 ALLERGOLOGIA
-						26439-0 PATOLOGIA CHIRURGICA".Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
-  </si>
-  <si>
-    <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : in questo caso "ERRORE-b11| L'elemento specimen/specimenRole/specimenPlayingEntity deve contenere l'elemento 'code'".Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
-  </si>
-  <si>
-    <t>Nella configurazione standard viene mostrata in una schermata l'elenco degli invii non andati a buon fine con l'indicazione dell'errore : in questo caso "ERRORE-b19| L’elemento organizer di tipo 'BATTERY' (@classCode='BATTERY') DEVE contenere l’elemento organizer/code.".Il documento rimane nella coda di invio sino alla risoluzione del problema</t>
   </si>
   <si>
     <t>2024-02-22T10:11:32Z</t>
@@ -1806,10 +1740,10 @@
   <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J83" sqref="J83"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2062,7 +1996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="120.75" thickBot="1">
+    <row r="10" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -2082,7 +2016,7 @@
         <v>45344</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>185</v>
@@ -2106,7 +2040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="120.75" thickBot="1">
+    <row r="11" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A11" s="11">
         <v>2</v>
       </c>
@@ -2126,7 +2060,7 @@
         <v>45344</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>187</v>
@@ -2150,7 +2084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="120.75" thickBot="1">
+    <row r="12" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A12" s="11">
         <v>3</v>
       </c>
@@ -2170,7 +2104,7 @@
         <v>45344</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>189</v>
@@ -2194,7 +2128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="120.75" thickBot="1">
+    <row r="13" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A13" s="11">
         <v>4</v>
       </c>
@@ -2214,7 +2148,7 @@
         <v>45344</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>191</v>
@@ -2238,7 +2172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="120.75" thickBot="1">
+    <row r="14" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A14" s="11">
         <v>5</v>
       </c>
@@ -2258,7 +2192,7 @@
         <v>45344</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>193</v>
@@ -2282,7 +2216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="105.75" thickBot="1">
+    <row r="15" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -2302,13 +2236,13 @@
         <v>45363</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>59</v>
@@ -2326,7 +2260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:20" ht="105.75" thickBot="1">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -2364,7 +2298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="17" spans="1:20" ht="105.75" thickBot="1">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -2402,7 +2336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="18" spans="1:20" ht="105.75" thickBot="1">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -2440,7 +2374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="180.75" thickBot="1">
+    <row r="19" spans="1:20" ht="180.75" hidden="1" thickBot="1">
       <c r="A19" s="11">
         <v>28</v>
       </c>
@@ -2460,10 +2394,10 @@
         <v>45348</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>199</v>
@@ -2494,7 +2428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="180.75" thickBot="1">
+    <row r="20" spans="1:20" ht="180.75" hidden="1" thickBot="1">
       <c r="A20" s="11">
         <v>31</v>
       </c>
@@ -2514,7 +2448,7 @@
         <v>45344</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>198</v>
@@ -2548,7 +2482,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="180.75" thickBot="1">
+    <row r="21" spans="1:20" ht="180.75" hidden="1" thickBot="1">
       <c r="A21" s="11">
         <v>32</v>
       </c>
@@ -2568,10 +2502,10 @@
         <v>45348</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>199</v>
@@ -2602,7 +2536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="165.75" thickBot="1">
+    <row r="22" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A22" s="11">
         <v>36</v>
       </c>
@@ -2622,10 +2556,10 @@
         <v>45348</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I22" s="21" t="s">
         <v>199</v>
@@ -2654,7 +2588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="165.75" thickBot="1">
+    <row r="23" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A23" s="11">
         <v>39</v>
       </c>
@@ -2674,7 +2608,7 @@
         <v>45344</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>200</v>
@@ -2708,7 +2642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="165.75" thickBot="1">
+    <row r="24" spans="1:20" ht="165.75" hidden="1" thickBot="1">
       <c r="A24" s="11">
         <v>40</v>
       </c>
@@ -2728,10 +2662,10 @@
         <v>45348</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="I24" s="21" t="s">
         <v>199</v>
@@ -2762,7 +2696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="180.75" thickBot="1">
+    <row r="25" spans="1:20" ht="180.75" hidden="1" thickBot="1">
       <c r="A25" s="11">
         <v>44</v>
       </c>
@@ -2782,7 +2716,7 @@
         <v>45348</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
@@ -2812,7 +2746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="180.75" thickBot="1">
+    <row r="26" spans="1:20" ht="180.75" hidden="1" thickBot="1">
       <c r="A26" s="11">
         <v>47</v>
       </c>
@@ -2832,7 +2766,7 @@
         <v>45344</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
@@ -2862,7 +2796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="180.75" thickBot="1">
+    <row r="27" spans="1:20" ht="180.75" hidden="1" thickBot="1">
       <c r="A27" s="11">
         <v>48</v>
       </c>
@@ -2882,7 +2816,7 @@
         <v>45348</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
@@ -2912,7 +2846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="240.75" hidden="1" thickBot="1">
+    <row r="28" spans="1:20" ht="90.75" thickBot="1">
       <c r="A28" s="11">
         <v>52</v>
       </c>
@@ -2929,7 +2863,7 @@
         <v>63</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -2940,19 +2874,11 @@
       <c r="K28" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L28" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P28" s="20" t="s">
-        <v>207</v>
-      </c>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="17"/>
       <c r="S28" s="18"/>
@@ -2960,7 +2886,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="180.75" hidden="1" thickBot="1">
+    <row r="29" spans="1:20" ht="90.75" thickBot="1">
       <c r="A29" s="11">
         <v>53</v>
       </c>
@@ -2977,7 +2903,7 @@
         <v>65</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -2988,19 +2914,11 @@
       <c r="K29" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L29" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>206</v>
-      </c>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
       <c r="Q29" s="16"/>
       <c r="R29" s="17"/>
       <c r="S29" s="18"/>
@@ -3008,7 +2926,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="240.75" hidden="1" thickBot="1">
+    <row r="30" spans="1:20" ht="90.75" thickBot="1">
       <c r="A30" s="11">
         <v>54</v>
       </c>
@@ -3025,7 +2943,7 @@
         <v>67</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -3036,19 +2954,11 @@
       <c r="K30" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L30" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
       <c r="N30" s="16"/>
-      <c r="O30" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P30" s="20" t="s">
-        <v>207</v>
-      </c>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="17"/>
       <c r="S30" s="18"/>
@@ -3056,7 +2966,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="225.75" hidden="1" thickBot="1">
+    <row r="31" spans="1:20" ht="90.75" thickBot="1">
       <c r="A31" s="11">
         <v>55</v>
       </c>
@@ -3073,7 +2983,7 @@
         <v>69</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -3084,19 +2994,11 @@
       <c r="K31" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L31" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M31" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
       <c r="N31" s="16"/>
-      <c r="O31" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P31" s="20" t="s">
-        <v>208</v>
-      </c>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
       <c r="Q31" s="16"/>
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>
@@ -3104,7 +3006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="90.75" hidden="1" thickBot="1">
+    <row r="32" spans="1:20" ht="90.75" thickBot="1">
       <c r="A32" s="11">
         <v>56</v>
       </c>
@@ -3121,7 +3023,7 @@
         <v>71</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -3130,14 +3032,10 @@
         <v>180</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" s="20" t="s">
-        <v>180</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
       <c r="N32" s="16"/>
       <c r="O32" s="20"/>
       <c r="P32" s="16"/>
@@ -3148,7 +3046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="33" spans="1:20" ht="105.75" thickBot="1">
       <c r="A33" s="11">
         <v>57</v>
       </c>
@@ -3165,7 +3063,7 @@
         <v>73</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -3174,14 +3072,10 @@
         <v>180</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M33" s="20" t="s">
-        <v>180</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
       <c r="N33" s="16"/>
       <c r="O33" s="20"/>
       <c r="P33" s="16"/>
@@ -3192,7 +3086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="225.75" hidden="1" thickBot="1">
+    <row r="34" spans="1:20" ht="90.75" thickBot="1">
       <c r="A34" s="11">
         <v>58</v>
       </c>
@@ -3209,7 +3103,7 @@
         <v>75</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -3220,19 +3114,11 @@
       <c r="K34" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L34" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
       <c r="N34" s="16"/>
-      <c r="O34" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P34" s="20" t="s">
-        <v>211</v>
-      </c>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="17"/>
       <c r="S34" s="18"/>
@@ -3240,7 +3126,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="255.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:20" ht="90.75" thickBot="1">
       <c r="A35" s="11">
         <v>59</v>
       </c>
@@ -3257,7 +3143,7 @@
         <v>77</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -3268,19 +3154,11 @@
       <c r="K35" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L35" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
       <c r="N35" s="16"/>
-      <c r="O35" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P35" s="20" t="s">
-        <v>212</v>
-      </c>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="17"/>
       <c r="S35" s="18"/>
@@ -3288,7 +3166,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="409.6" hidden="1" thickBot="1">
+    <row r="36" spans="1:20" ht="90.75" thickBot="1">
       <c r="A36" s="11">
         <v>60</v>
       </c>
@@ -3305,7 +3183,7 @@
         <v>79</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -3316,19 +3194,11 @@
       <c r="K36" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L36" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
       <c r="N36" s="16"/>
-      <c r="O36" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P36" s="20" t="s">
-        <v>225</v>
-      </c>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="17"/>
       <c r="S36" s="18"/>
@@ -3336,7 +3206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="195.75" hidden="1" thickBot="1">
+    <row r="37" spans="1:20" ht="90.75" thickBot="1">
       <c r="A37" s="11">
         <v>61</v>
       </c>
@@ -3353,7 +3223,7 @@
         <v>81</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -3364,19 +3234,11 @@
       <c r="K37" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L37" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M37" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
       <c r="N37" s="16"/>
-      <c r="O37" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P37" s="20" t="s">
-        <v>226</v>
-      </c>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="17"/>
       <c r="S37" s="18"/>
@@ -3384,7 +3246,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="210.75" hidden="1" thickBot="1">
+    <row r="38" spans="1:20" ht="90.75" thickBot="1">
       <c r="A38" s="11">
         <v>62</v>
       </c>
@@ -3401,7 +3263,7 @@
         <v>83</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -3412,19 +3274,11 @@
       <c r="K38" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L38" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M38" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="16"/>
-      <c r="O38" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P38" s="20" t="s">
-        <v>227</v>
-      </c>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="17"/>
       <c r="S38" s="18"/>
@@ -3432,7 +3286,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="236.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="39" spans="1:20" ht="236.25" customHeight="1" thickBot="1">
       <c r="A39" s="11">
         <v>75</v>
       </c>
@@ -3449,7 +3303,7 @@
         <v>85</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -3460,19 +3314,11 @@
       <c r="K39" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L39" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M39" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
       <c r="N39" s="16"/>
-      <c r="O39" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P39" s="20" t="s">
-        <v>205</v>
-      </c>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="17"/>
       <c r="S39" s="18"/>
@@ -3480,7 +3326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="180.75" hidden="1" thickBot="1">
+    <row r="40" spans="1:20" ht="90.75" thickBot="1">
       <c r="A40" s="11">
         <v>76</v>
       </c>
@@ -3497,7 +3343,7 @@
         <v>87</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -3508,19 +3354,11 @@
       <c r="K40" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L40" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M40" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
       <c r="N40" s="16"/>
-      <c r="O40" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P40" s="20" t="s">
-        <v>206</v>
-      </c>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="17"/>
       <c r="S40" s="18"/>
@@ -3528,7 +3366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="240.75" hidden="1" thickBot="1">
+    <row r="41" spans="1:20" ht="90.75" thickBot="1">
       <c r="A41" s="11">
         <v>77</v>
       </c>
@@ -3545,7 +3383,7 @@
         <v>89</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -3556,19 +3394,11 @@
       <c r="K41" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L41" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M41" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
       <c r="N41" s="16"/>
-      <c r="O41" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P41" s="20" t="s">
-        <v>207</v>
-      </c>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="17"/>
       <c r="S41" s="18"/>
@@ -3576,7 +3406,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="225.75" hidden="1" thickBot="1">
+    <row r="42" spans="1:20" ht="90.75" thickBot="1">
       <c r="A42" s="11">
         <v>78</v>
       </c>
@@ -3593,7 +3423,7 @@
         <v>91</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -3604,19 +3434,11 @@
       <c r="K42" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L42" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M42" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
       <c r="N42" s="16"/>
-      <c r="O42" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P42" s="20" t="s">
-        <v>208</v>
-      </c>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="17"/>
       <c r="S42" s="18"/>
@@ -3624,7 +3446,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="90.75" hidden="1" thickBot="1">
+    <row r="43" spans="1:20" ht="90.75" thickBot="1">
       <c r="A43" s="11">
         <v>79</v>
       </c>
@@ -3641,7 +3463,7 @@
         <v>93</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -3650,7 +3472,7 @@
         <v>180</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
@@ -3664,7 +3486,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="44" spans="1:20" ht="105.75" thickBot="1">
       <c r="A44" s="11">
         <v>80</v>
       </c>
@@ -3681,7 +3503,7 @@
         <v>95</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -3690,7 +3512,7 @@
         <v>180</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
@@ -3704,7 +3526,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="225.75" hidden="1" thickBot="1">
+    <row r="45" spans="1:20" ht="105.75" thickBot="1">
       <c r="A45" s="11">
         <v>81</v>
       </c>
@@ -3721,7 +3543,7 @@
         <v>97</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -3732,19 +3554,11 @@
       <c r="K45" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L45" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
       <c r="N45" s="16"/>
-      <c r="O45" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="20" t="s">
-        <v>211</v>
-      </c>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="17"/>
       <c r="S45" s="18"/>
@@ -3752,7 +3566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="255.75" hidden="1" thickBot="1">
+    <row r="46" spans="1:20" ht="90.75" thickBot="1">
       <c r="A46" s="11">
         <v>82</v>
       </c>
@@ -3769,7 +3583,7 @@
         <v>99</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -3780,19 +3594,11 @@
       <c r="K46" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L46" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M46" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
       <c r="N46" s="16"/>
-      <c r="O46" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P46" s="20" t="s">
-        <v>212</v>
-      </c>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
       <c r="Q46" s="16"/>
       <c r="R46" s="17"/>
       <c r="S46" s="18"/>
@@ -3800,7 +3606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="75.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:20" ht="75.75" thickBot="1">
       <c r="A47" s="11">
         <v>83</v>
       </c>
@@ -3817,7 +3623,7 @@
         <v>101</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -3826,7 +3632,7 @@
         <v>180</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
@@ -3840,7 +3646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="285.75" hidden="1" thickBot="1">
+    <row r="48" spans="1:20" ht="90.75" thickBot="1">
       <c r="A48" s="11">
         <v>84</v>
       </c>
@@ -3857,7 +3663,7 @@
         <v>103</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -3868,19 +3674,11 @@
       <c r="K48" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L48" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M48" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
       <c r="N48" s="16"/>
-      <c r="O48" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P48" s="20" t="s">
-        <v>214</v>
-      </c>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
       <c r="Q48" s="16"/>
       <c r="R48" s="17"/>
       <c r="S48" s="18"/>
@@ -3888,7 +3686,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="165.75" hidden="1" thickBot="1">
+    <row r="49" spans="1:20" ht="90.75" thickBot="1">
       <c r="A49" s="11">
         <v>85</v>
       </c>
@@ -3905,7 +3703,7 @@
         <v>105</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -3919,12 +3717,8 @@
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
-      <c r="O49" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P49" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
       <c r="Q49" s="16"/>
       <c r="R49" s="17"/>
       <c r="S49" s="18"/>
@@ -3932,7 +3726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="90.75" hidden="1" thickBot="1">
+    <row r="50" spans="1:20" ht="90.75" thickBot="1">
       <c r="A50" s="11">
         <v>86</v>
       </c>
@@ -3949,7 +3743,7 @@
         <v>107</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -3972,7 +3766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="51" spans="1:20" ht="105.75" thickBot="1">
       <c r="A51" s="11">
         <v>87</v>
       </c>
@@ -3989,7 +3783,7 @@
         <v>109</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -4012,7 +3806,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="90.75" hidden="1" thickBot="1">
+    <row r="52" spans="1:20" ht="90.75" thickBot="1">
       <c r="A52" s="11">
         <v>88</v>
       </c>
@@ -4029,7 +3823,7 @@
         <v>111</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -4052,7 +3846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="75.75" hidden="1" thickBot="1">
+    <row r="53" spans="1:20" ht="75.75" thickBot="1">
       <c r="A53" s="11">
         <v>89</v>
       </c>
@@ -4069,7 +3863,7 @@
         <v>113</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -4092,7 +3886,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="75.75" hidden="1" thickBot="1">
+    <row r="54" spans="1:20" ht="75.75" thickBot="1">
       <c r="A54" s="11">
         <v>90</v>
       </c>
@@ -4109,7 +3903,7 @@
         <v>115</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -4132,7 +3926,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="90.75" hidden="1" thickBot="1">
+    <row r="55" spans="1:20" ht="90.75" thickBot="1">
       <c r="A55" s="11">
         <v>91</v>
       </c>
@@ -4149,7 +3943,7 @@
         <v>117</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
@@ -4172,7 +3966,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="56" spans="1:20" ht="105.75" thickBot="1">
       <c r="A56" s="11">
         <v>92</v>
       </c>
@@ -4189,7 +3983,7 @@
         <v>119</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -4212,7 +4006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="255.75" hidden="1" thickBot="1">
+    <row r="57" spans="1:20" ht="90.75" thickBot="1">
       <c r="A57" s="11">
         <v>93</v>
       </c>
@@ -4229,7 +4023,7 @@
         <v>121</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
@@ -4240,17 +4034,11 @@
       <c r="K57" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L57" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M57" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
       <c r="N57" s="16"/>
       <c r="O57" s="16"/>
-      <c r="P57" s="20" t="s">
-        <v>216</v>
-      </c>
+      <c r="P57" s="20"/>
       <c r="Q57" s="16"/>
       <c r="R57" s="17"/>
       <c r="S57" s="18"/>
@@ -4258,7 +4046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="135.75" thickBot="1">
+    <row r="58" spans="1:20" ht="135.75" hidden="1" thickBot="1">
       <c r="A58" s="11">
         <v>147</v>
       </c>
@@ -4278,13 +4066,13 @@
         <v>45363</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="J58" s="16" t="s">
         <v>59</v>
@@ -4302,7 +4090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="135.75" hidden="1" thickBot="1">
+    <row r="59" spans="1:20" ht="135.75" thickBot="1">
       <c r="A59" s="11">
         <v>148</v>
       </c>
@@ -4319,7 +4107,7 @@
         <v>125</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -4342,7 +4130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="135.75" hidden="1" thickBot="1">
+    <row r="60" spans="1:20" ht="135.75" thickBot="1">
       <c r="A60" s="11">
         <v>149</v>
       </c>
@@ -4359,7 +4147,7 @@
         <v>127</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -4382,7 +4170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="135.75" hidden="1" thickBot="1">
+    <row r="61" spans="1:20" ht="135.75" thickBot="1">
       <c r="A61" s="11">
         <v>150</v>
       </c>
@@ -4420,7 +4208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="225.75" hidden="1" thickBot="1">
+    <row r="62" spans="1:20" ht="90.75" thickBot="1">
       <c r="A62" s="11">
         <v>151</v>
       </c>
@@ -4437,7 +4225,7 @@
         <v>131</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -4448,17 +4236,11 @@
       <c r="K62" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L62" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M62" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
       <c r="N62" s="16"/>
       <c r="O62" s="16"/>
-      <c r="P62" s="20" t="s">
-        <v>217</v>
-      </c>
+      <c r="P62" s="20"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="17"/>
       <c r="S62" s="18"/>
@@ -4466,7 +4248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="180.75" hidden="1" thickBot="1">
+    <row r="63" spans="1:20" ht="105.75" thickBot="1">
       <c r="A63" s="11">
         <v>152</v>
       </c>
@@ -4483,7 +4265,7 @@
         <v>133</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -4494,17 +4276,11 @@
       <c r="K63" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L63" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M63" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
       <c r="N63" s="16"/>
       <c r="O63" s="16"/>
-      <c r="P63" s="20" t="s">
-        <v>206</v>
-      </c>
+      <c r="P63" s="20"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="17"/>
       <c r="S63" s="18"/>
@@ -4512,7 +4288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="240.75" hidden="1" thickBot="1">
+    <row r="64" spans="1:20" ht="105.75" thickBot="1">
       <c r="A64" s="11">
         <v>153</v>
       </c>
@@ -4529,7 +4305,7 @@
         <v>135</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -4540,17 +4316,11 @@
       <c r="K64" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L64" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M64" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
-      <c r="P64" s="20" t="s">
-        <v>207</v>
-      </c>
+      <c r="P64" s="20"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="17"/>
       <c r="S64" s="18"/>
@@ -4558,7 +4328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="225.75" hidden="1" thickBot="1">
+    <row r="65" spans="1:20" ht="105.75" thickBot="1">
       <c r="A65" s="11">
         <v>154</v>
       </c>
@@ -4575,7 +4345,7 @@
         <v>137</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
@@ -4586,17 +4356,11 @@
       <c r="K65" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L65" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M65" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
-      <c r="P65" s="20" t="s">
-        <v>208</v>
-      </c>
+      <c r="P65" s="20"/>
       <c r="Q65" s="16"/>
       <c r="R65" s="17"/>
       <c r="S65" s="18"/>
@@ -4604,7 +4368,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="66" spans="1:20" ht="105.75" thickBot="1">
       <c r="A66" s="11">
         <v>155</v>
       </c>
@@ -4621,7 +4385,7 @@
         <v>139</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -4630,7 +4394,7 @@
         <v>180</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
@@ -4644,7 +4408,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="120.75" hidden="1" thickBot="1">
+    <row r="67" spans="1:20" ht="120.75" thickBot="1">
       <c r="A67" s="11">
         <v>156</v>
       </c>
@@ -4661,7 +4425,7 @@
         <v>141</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
@@ -4670,7 +4434,7 @@
         <v>180</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
@@ -4684,7 +4448,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="120.75" hidden="1" thickBot="1">
+    <row r="68" spans="1:20" ht="120.75" thickBot="1">
       <c r="A68" s="11">
         <v>157</v>
       </c>
@@ -4701,7 +4465,7 @@
         <v>143</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
@@ -4724,7 +4488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="255.75" hidden="1" thickBot="1">
+    <row r="69" spans="1:20" ht="105.75" thickBot="1">
       <c r="A69" s="11">
         <v>158</v>
       </c>
@@ -4741,7 +4505,7 @@
         <v>145</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
@@ -4752,17 +4516,11 @@
       <c r="K69" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L69" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M69" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
-      <c r="P69" s="20" t="s">
-        <v>212</v>
-      </c>
+      <c r="P69" s="20"/>
       <c r="Q69" s="16"/>
       <c r="R69" s="17"/>
       <c r="S69" s="18"/>
@@ -4770,7 +4528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="90.75" hidden="1" thickBot="1">
+    <row r="70" spans="1:20" ht="90.75" thickBot="1">
       <c r="A70" s="11">
         <v>159</v>
       </c>
@@ -4787,7 +4545,7 @@
         <v>147</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -4796,7 +4554,7 @@
         <v>180</v>
       </c>
       <c r="K70" s="20" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L70" s="16"/>
       <c r="M70" s="20"/>
@@ -4810,7 +4568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="285.75" hidden="1" thickBot="1">
+    <row r="71" spans="1:20" ht="90.75" thickBot="1">
       <c r="A71" s="11">
         <v>160</v>
       </c>
@@ -4827,7 +4585,7 @@
         <v>149</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -4838,16 +4596,10 @@
       <c r="K71" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L71" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M71" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
       <c r="O71" s="16"/>
-      <c r="P71" s="20" t="s">
-        <v>214</v>
-      </c>
+      <c r="P71" s="20"/>
       <c r="Q71" s="16"/>
       <c r="R71" s="17"/>
       <c r="S71" s="18"/>
@@ -4855,7 +4607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="165.75" hidden="1" thickBot="1">
+    <row r="72" spans="1:20" ht="105.75" thickBot="1">
       <c r="A72" s="11">
         <v>161</v>
       </c>
@@ -4872,7 +4624,7 @@
         <v>151</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -4883,17 +4635,11 @@
       <c r="K72" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L72" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M72" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
-      <c r="P72" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="P72" s="20"/>
       <c r="Q72" s="16"/>
       <c r="R72" s="17"/>
       <c r="S72" s="18"/>
@@ -4901,7 +4647,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="73" spans="1:20" ht="105.75" thickBot="1">
       <c r="A73" s="11">
         <v>162</v>
       </c>
@@ -4918,7 +4664,7 @@
         <v>153</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -4941,7 +4687,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:20" ht="105.75" thickBot="1">
       <c r="A74" s="11">
         <v>163</v>
       </c>
@@ -4958,7 +4704,7 @@
         <v>155</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -4981,7 +4727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:20" ht="105.75" thickBot="1">
       <c r="A75" s="11">
         <v>164</v>
       </c>
@@ -4998,7 +4744,7 @@
         <v>157</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -5021,7 +4767,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:20" ht="105.75" thickBot="1">
       <c r="A76" s="11">
         <v>165</v>
       </c>
@@ -5038,7 +4784,7 @@
         <v>159</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -5061,7 +4807,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:20" ht="105.75" thickBot="1">
       <c r="A77" s="11">
         <v>166</v>
       </c>
@@ -5078,7 +4824,7 @@
         <v>161</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -5101,7 +4847,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="105.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:20" ht="105.75" thickBot="1">
       <c r="A78" s="11">
         <v>167</v>
       </c>
@@ -5118,7 +4864,7 @@
         <v>163</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -5141,7 +4887,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="120.75" hidden="1" thickBot="1">
+    <row r="79" spans="1:20" ht="120.75" thickBot="1">
       <c r="A79" s="11">
         <v>168</v>
       </c>
@@ -5158,7 +4904,7 @@
         <v>165</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -5181,7 +4927,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="210.75" hidden="1" thickBot="1">
+    <row r="80" spans="1:20" ht="105.75" thickBot="1">
       <c r="A80" s="11">
         <v>169</v>
       </c>
@@ -5198,7 +4944,7 @@
         <v>167</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -5209,17 +4955,11 @@
       <c r="K80" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L80" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M80" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
       <c r="N80" s="16"/>
       <c r="O80" s="16"/>
-      <c r="P80" s="20" t="s">
-        <v>219</v>
-      </c>
+      <c r="P80" s="20"/>
       <c r="Q80" s="16"/>
       <c r="R80" s="17"/>
       <c r="S80" s="18"/>
@@ -5227,7 +4967,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="120.75" hidden="1" thickBot="1">
+    <row r="81" spans="1:20" ht="120.75" thickBot="1">
       <c r="A81" s="11">
         <v>191</v>
       </c>
@@ -5244,7 +4984,7 @@
         <v>169</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -5253,7 +4993,7 @@
         <v>180</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
@@ -5267,7 +5007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="120.75" thickBot="1">
+    <row r="82" spans="1:20" ht="120.75" hidden="1" thickBot="1">
       <c r="A82" s="11">
         <v>368</v>
       </c>
@@ -5287,7 +5027,7 @@
         <v>45344</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="H82" s="15" t="s">
         <v>195</v>
@@ -5311,7 +5051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="105.75" thickBot="1">
+    <row r="83" spans="1:20" ht="105.75" hidden="1" thickBot="1">
       <c r="A83" s="11">
         <v>370</v>
       </c>
@@ -5331,13 +5071,13 @@
         <v>45363</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="H83" s="21" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="J83" s="20" t="s">
         <v>59</v>
@@ -5355,7 +5095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="135">
+    <row r="84" spans="1:20" ht="135" hidden="1">
       <c r="A84" s="11">
         <v>374</v>
       </c>
@@ -5375,13 +5115,13 @@
         <v>45363</v>
       </c>
       <c r="G84" s="21" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="H84" s="21" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="J84" s="20" t="s">
         <v>59</v>
@@ -5399,7 +5139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="120" hidden="1">
+    <row r="85" spans="1:20" ht="120">
       <c r="A85" s="11">
         <v>376</v>
       </c>
@@ -5416,7 +5156,7 @@
         <v>177</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -5425,7 +5165,7 @@
         <v>180</v>
       </c>
       <c r="K85" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="L85" s="16"/>
       <c r="M85" s="16"/>
@@ -5443,7 +5183,7 @@
   <autoFilter ref="A9:T85" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="9">
       <filters>
-        <filter val="SI"/>
+        <filter val="NO"/>
       </filters>
     </filterColumn>
   </autoFilter>
